--- a/data/trans_orig/Q02D_LAB-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q02D_LAB-Habitat-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>6.003078006570082</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6.180393221808832</v>
+        <v>6.180393221808836</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>4.627304330578608</v>
@@ -693,7 +693,7 @@
         <v>7.069584537991543</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>7.349524529686305</v>
+        <v>7.349524529686304</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.391070838374666</v>
+        <v>2.358982964637665</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.160589719929068</v>
+        <v>4.090119801756119</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.245412819436943</v>
+        <v>5.273595476474846</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.787609573859873</v>
+        <v>4.826127176176854</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>4.01380655988738</v>
+        <v>4.052595562047071</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>6.197919499013272</v>
+        <v>6.172585375498439</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>7.220502024048607</v>
+        <v>7.172059781206378</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>7.012952819978562</v>
+        <v>6.999476410501279</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>3.485618002178811</v>
+        <v>3.54841580461032</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5.481648973564418</v>
+        <v>5.460755904282872</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6.470076827468545</v>
+        <v>6.487335367234152</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>6.223615366738345</v>
+        <v>6.313889342263678</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.630812334132763</v>
+        <v>3.609196106583746</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.275471327877927</v>
+        <v>5.219551983815505</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.982974980859328</v>
+        <v>7.097801756265486</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.191545128156626</v>
+        <v>8.052429937665581</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.446938560238581</v>
+        <v>5.367288623824209</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.134656432375224</v>
+        <v>7.15328080527144</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>8.959452394838229</v>
+        <v>8.842490781643146</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>10.2168808093702</v>
+        <v>10.27439436566167</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.543053975240823</v>
+        <v>4.563262542661603</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6.221879165693025</v>
+        <v>6.189872562591662</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7.711359577555826</v>
+        <v>7.743157993817965</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>8.674380156078204</v>
+        <v>8.79846872327758</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>5.172410543039597</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5.535955727400829</v>
+        <v>5.535955727400828</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>5.896070418087837</v>
@@ -817,7 +817,7 @@
         <v>7.459349807255097</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>7.038352161632223</v>
+        <v>7.038352161632224</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>5.102389218603193</v>
@@ -829,7 +829,7 @@
         <v>6.54065784888424</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>6.448846364293232</v>
+        <v>6.448846364293228</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.302016959019764</v>
+        <v>3.260658548266031</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>4.520820179819178</v>
+        <v>4.571485819063065</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4.60075876194963</v>
+        <v>4.617757444807729</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4.543276087442949</v>
+        <v>4.550521131363557</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>5.306638790544916</v>
+        <v>5.293972372967688</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>6.201409647152475</v>
+        <v>6.19530275735237</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>6.916932694183388</v>
+        <v>6.929749005624061</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>6.351613632773518</v>
+        <v>6.311028510407655</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>4.65692803467283</v>
+        <v>4.64137080175696</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5.656242880885316</v>
+        <v>5.628757074742623</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>6.14955826003792</v>
+        <v>6.138078963257842</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>5.890465069800245</v>
+        <v>5.811400888201796</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.681052230468621</v>
+        <v>4.726324912030421</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.398545661955007</v>
+        <v>5.408292041521255</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.882585786140199</v>
+        <v>5.784136210151009</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.174126314872717</v>
+        <v>6.851819834571319</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>6.6381142448963</v>
+        <v>6.59701591637846</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>7.037300755641158</v>
+        <v>6.983602250441074</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>8.117383876831012</v>
+        <v>8.146970487768058</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>7.832898695651109</v>
+        <v>7.892576644222552</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>5.654231481164949</v>
+        <v>5.672226012813248</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6.258633217322537</v>
+        <v>6.251182613406253</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7.06994319043157</v>
+        <v>7.079316865098617</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>7.224119188545965</v>
+        <v>7.185088756542096</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>7.725223545964356</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6.432033446957211</v>
+        <v>6.432033446957208</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>6.342874171092281</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.543986120349226</v>
+        <v>3.551208573848711</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.318602508182292</v>
+        <v>4.316052786846162</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6.851357134588789</v>
+        <v>6.898491258162251</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.380927510572375</v>
+        <v>4.340156505108588</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>5.671190369867095</v>
+        <v>5.597881255800759</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>6.357044633037915</v>
+        <v>6.354767026774227</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>9.627702338757057</v>
+        <v>9.459263507759811</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>7.397263201850055</v>
+        <v>7.404088871121682</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>4.951533056506212</v>
+        <v>4.939763802885246</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5.679585118691707</v>
+        <v>5.694556506932097</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8.721378330764203</v>
+        <v>8.702511704441786</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>6.742906088823927</v>
+        <v>6.727361898476154</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.05486070954275</v>
+        <v>4.90282727372521</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.194268969968097</v>
+        <v>5.156445290530346</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.740477327032712</v>
+        <v>8.868410800409</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11.26453894128123</v>
+        <v>11.47861066047803</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.14921193504061</v>
+        <v>7.125860473457565</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.237365190568272</v>
+        <v>7.238134092842164</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>11.38525487180167</v>
+        <v>11.26397376331655</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>10.33163633624191</v>
+        <v>10.2420874540168</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>6.107414229076158</v>
+        <v>6.062574002773959</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6.35516307773872</v>
+        <v>6.344608821232158</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>10.11743259212813</v>
+        <v>10.09184174009062</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>9.533366513891323</v>
+        <v>9.628320764399412</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>6.726485826117186</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5.165058173259034</v>
+        <v>5.165058173259036</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>6.311988812542286</v>
@@ -1101,7 +1101,7 @@
         <v>7.823557059967844</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>6.609151121559902</v>
+        <v>6.609151121559901</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.028559461487262</v>
+        <v>3.037752732804236</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.085837827786816</v>
+        <v>4.061060418353567</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5.969127846630491</v>
+        <v>5.951307418419122</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4.261440092068882</v>
+        <v>4.227560769975486</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>5.720120635426651</v>
+        <v>5.674422409873332</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>6.004429636511491</v>
+        <v>6.078907158584705</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>7.862434158777219</v>
+        <v>7.806496821674776</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>6.390587061112051</v>
+        <v>6.351221043868363</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>4.818588540420642</v>
+        <v>4.818024876707454</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5.37005967628729</v>
+        <v>5.362817853940117</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7.330665109806723</v>
+        <v>7.300064833599654</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>5.732793796750021</v>
+        <v>5.705904633516135</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.21438345391108</v>
+        <v>4.223819294429339</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.03783349797012</v>
+        <v>5.015741774566729</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.594915549697058</v>
+        <v>7.645211594412181</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.746987166095694</v>
+        <v>6.576988675113865</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>7.14686876561801</v>
+        <v>7.106821813574356</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>6.789120627335685</v>
+        <v>6.825245733544264</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>9.266289695419109</v>
+        <v>9.305016766334614</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>9.100658093009976</v>
+        <v>8.940586514112162</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>5.814575832047264</v>
+        <v>5.845387316521914</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>5.965062167235875</v>
+        <v>5.955573141381865</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>8.421808755229828</v>
+        <v>8.410682009669149</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>7.780012417122114</v>
+        <v>7.695018758535841</v>
       </c>
     </row>
     <row r="16">
@@ -1237,7 +1237,7 @@
         <v>7.581759069705741</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>6.923712975452706</v>
+        <v>6.923712975452707</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.349190805251983</v>
+        <v>3.31901885244915</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.49201902693467</v>
+        <v>4.485314338831506</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.848031574111727</v>
+        <v>5.888441878051719</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5.068397453941725</v>
+        <v>4.982465456691928</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>5.48646810708629</v>
+        <v>5.484570094389847</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>6.384214968855859</v>
+        <v>6.385546029757811</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>8.104369711906424</v>
+        <v>8.092042490055952</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>7.117882852324975</v>
+        <v>7.104817456806499</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>4.734740591094137</v>
+        <v>4.731775519231847</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5.708001087799634</v>
+        <v>5.704944086621871</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7.296452516851418</v>
+        <v>7.300649935433555</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>6.418705039805028</v>
+        <v>6.480108517818953</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.02254048620712</v>
+        <v>3.940310998409816</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.946980394629359</v>
+        <v>4.970967950511612</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.660812896166981</v>
+        <v>6.705785051898292</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.601819460402996</v>
+        <v>6.625383901310363</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>6.222726475989657</v>
+        <v>6.151034401636835</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.828654022334335</v>
+        <v>6.8306539324224</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>8.849410663691625</v>
+        <v>8.866605483275602</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>8.291731674026222</v>
+        <v>8.391105211801429</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.226851036686699</v>
+        <v>5.262280681129933</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6.03253248467217</v>
+        <v>6.020654830794018</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>7.860818298937198</v>
+        <v>7.887382292452437</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>7.413866809603816</v>
+        <v>7.472742641848059</v>
       </c>
     </row>
     <row r="19">
